--- a/resultados/comp_estFijo10.xlsx
+++ b/resultados/comp_estFijo10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\arc_analysis\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F38C36-15B2-49A0-97D9-2D03348525E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFB59C-C29E-41F8-BF6A-2DC68B55484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
-    <t>arc</t>
-  </si>
-  <si>
     <t>dif_arc</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>La_Paz - Agustin_C</t>
+  </si>
+  <si>
+    <t>Subset of arcs</t>
   </si>
 </sst>
 </file>
@@ -877,7 +877,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:D11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,28 +895,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="3">
         <v>1000000</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>22.545054</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>22.340098999999999</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>22.333653000000002</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>22.186426000000001</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>19.615644</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>19.538314</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>19.458973</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>19.422650000000001</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>19.342846000000002</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>18.112563000000002</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4">
         <v>7.249288</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>6.7438580000000004</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>6.2774830000000001</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>5.5498599999999998</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>5.3462610000000002</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
         <v>4.8468840000000002</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>4.7868380000000004</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4">
         <v>3.9932349999999999</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4">
         <v>3.926787</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4">
         <v>3.8181750000000001</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4">
         <v>3.8169019999999998</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>3.137696</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4">
         <v>3.0785740000000001</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4">
         <v>2.7672140000000001</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4">
         <v>2.711328</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4">
         <v>2.7051080000000001</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4">
         <v>2.6819389999999999</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4">
         <v>2.677686</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4">
         <v>2.508521</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4">
         <v>2.41012</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4">
         <v>2.2254309999999999</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4">
         <v>2.2183739999999998</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4">
         <v>2.2151149999999999</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4">
         <v>2.1872419999999999</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4">
         <v>2.1470009999999999</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4">
         <v>2.1177009999999998</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4">
         <v>2.1117210000000002</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4">
         <v>2.0710069999999998</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4">
         <v>2.0283410000000002</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4">
         <v>1.9529449999999999</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4">
         <v>1.9493670000000001</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4">
         <v>1.6892020000000001</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4">
         <v>1.6402049999999999</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4">
         <v>1.6119969999999999</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4">
         <v>1.6023769999999999</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="4">
         <v>1.5881430000000001</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4">
         <v>1.5757019999999999</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4">
         <v>1.548011</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4">
         <v>1.54162</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4">
         <v>1.5066839999999999</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4">
         <v>1.4880180000000001</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4">
         <v>1.478059</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4">
         <v>1.439541</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4">
         <v>1.4191370000000001</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4">
         <v>1.3268059999999999</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4">
         <v>1.324093</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4">
         <v>1.308478</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4">
         <v>1.286718</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4">
         <v>1.2789010000000001</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="4">
         <v>1.2118990000000001</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4">
         <v>1.2013069999999999</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4">
         <v>1.134436</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4">
         <v>1.08874</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4">
         <v>1.04999</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4">
         <v>1.0124740000000001</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4">
         <v>0.95590799999999998</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4">
         <v>0.93510899999999997</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4">
         <v>0.88051400000000002</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4">
         <v>0.86466900000000002</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4">
         <v>0.84042899999999998</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4">
         <v>0.83642399999999995</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4">
         <v>0.83548500000000003</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4">
         <v>0.83193099999999998</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4">
         <v>0.80266199999999999</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4">
         <v>0.80154899999999996</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4">
         <v>0.78559299999999999</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4">
         <v>0.76477099999999998</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4">
         <v>0.76335600000000003</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4">
         <v>0.74822100000000002</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="4">
         <v>0.74728700000000003</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="4">
         <v>0.74414100000000005</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4">
         <v>0.68119499999999999</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4">
         <v>0.66542800000000002</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="4">
         <v>0.63124499999999995</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4">
         <v>0.62943099999999996</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4">
         <v>0.55735999999999997</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4">
         <v>0.55366199999999999</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="4">
         <v>0.54413699999999998</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4">
         <v>0.54098400000000002</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="4">
         <v>0.50076600000000004</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="4">
         <v>0.46970800000000001</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="4">
         <v>0.46097700000000003</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="4">
         <v>0.45289099999999999</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="4">
         <v>0.452677</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="4">
         <v>0.40261200000000003</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="4">
         <v>0.40211799999999998</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="4">
         <v>0.35581200000000002</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="4">
         <v>0.29070099999999999</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="4">
         <v>0.28493099999999999</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="4">
         <v>0.27293299999999998</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4">
         <v>0.266289</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4">
         <v>0.240421</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="4">
         <v>0.20246700000000001</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="4">
         <v>0.16028999999999999</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="4">
         <v>0.133411</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="4">
         <v>0.13166700000000001</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="4">
         <v>9.1024999999999995E-2</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="4">
         <v>8.1827999999999998E-2</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="4">
         <v>8.1558000000000005E-2</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="4">
         <v>7.8899999999999998E-2</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="4">
         <v>6.3164999999999999E-2</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="4">
         <v>5.6632000000000002E-2</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="4">
         <v>4.4988E-2</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="4">
         <v>2.9492000000000001E-2</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="4">
         <v>2.3751000000000001E-2</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="4">
         <v>1.0907E-2</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="4">
         <v>-5.8170000000000001E-3</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="4">
         <v>-1.2153000000000001E-2</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4">
         <v>-2.8760000000000001E-2</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="4">
         <v>-6.2949000000000005E-2</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="4">
         <v>-7.1728E-2</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="4">
         <v>-8.4373000000000004E-2</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="4">
         <v>-9.3925999999999996E-2</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="4">
         <v>-0.105934</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="4">
         <v>-0.115619</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="4">
         <v>-0.13641700000000001</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="4">
         <v>-0.147397</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="4">
         <v>-0.15085599999999999</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="4">
         <v>-0.157975</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="4">
         <v>-0.162546</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="4">
         <v>-0.191554</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="4">
         <v>-0.197602</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" s="4">
         <v>-0.201381</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="4">
         <v>-0.21351600000000001</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="4">
         <v>-0.21816099999999999</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="4">
         <v>-0.234787</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="4">
         <v>-0.23549100000000001</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="4">
         <v>-0.273814</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="4">
         <v>-0.286663</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" s="4">
         <v>-0.31001099999999998</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="4">
         <v>-0.31119599999999997</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="4">
         <v>-0.35497800000000002</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="4">
         <v>-0.41637299999999999</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4">
         <v>-0.65127800000000002</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="4">
         <v>-0.68583899999999998</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4">
         <v>-0.75410299999999997</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4">
         <v>-1.1561840000000001</v>

--- a/resultados/comp_estFijo10.xlsx
+++ b/resultados/comp_estFijo10.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\arc_analysis\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFB59C-C29E-41F8-BF6A-2DC68B55484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E3A8BB-7555-4E7B-939A-DEA853CD9B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-885" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -874,10 +887,10 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:A12"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,8 +899,8 @@
     <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>

--- a/resultados/comp_estFijo10.xlsx
+++ b/resultados/comp_estFijo10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\arc_analysis\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\cod\arc_analysis\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E3A8BB-7555-4E7B-939A-DEA853CD9B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813C8EE-014B-4033-BD31-284FD8C32913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-885" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,10 +887,10 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:H21"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,8 +899,8 @@
     <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
